--- a/migforecasting/cities19-21/2/d9.xlsx
+++ b/migforecasting/cities19-21/2/d9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\неполные данные\19-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1025,7 +1025,7 @@
     </r>
   </si>
   <si>
-    <t>Нарьян-мар</t>
+    <t>Нарьян-Мар</t>
   </si>
 </sst>
 </file>
@@ -1371,39 +1371,39 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,15 +1722,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1747,12 +1747,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1889,12 +1889,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1911,30 +1911,30 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31">
         <v>100</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="31">
         <v>630</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="31">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
